--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P26_trail5 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P26_trail5 Features.xlsx
@@ -4328,7 +4328,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z7"/>
+  <dimension ref="A1:X7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4339,29 +4339,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="22" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="21" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
-    <col width="21" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4382,115 +4380,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4507,72 +4495,66 @@
         <v>4.542467838017171e-07</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.4591675956624896</v>
+        <v>1.399532313498429e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.127950400451098</v>
+        <v>3.250463035876692e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>1.399532313498429e-06</v>
+        <v>-0.0147171526636791</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>3.250463035876692e-06</v>
+        <v>0.1154139575276916</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>-0.0147171526636791</v>
+        <v>0.01353690972664387</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1154139575276916</v>
+        <v>1.842106971827912</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.01353690972664387</v>
+        <v>2.054906927743622</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.81527743376359</v>
+        <v>3.933884936837705</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>2.054906927743622</v>
+        <v>5.668922178590146e-16</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.933884936837705</v>
+        <v>291662224.0637693</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>5.668922178590146e-16</v>
+        <v>4.043093386756333e-07</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>291662224.0637693</v>
+        <v>48.22373693274502</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>4.043093386756333e-07</v>
+        <v>0.0001425917999844983</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>48.22373693274502</v>
+        <v>8.624417059197418</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001425917999844983</v>
+        <v>1.287618066118084</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>8.624417059197418</v>
+        <v>0.01060605930470126</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.287618066118084</v>
+        <v>2.901265111950385</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01060605930470126</v>
+        <v>0.9596292073579634</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.901265111950385</v>
+        <v>1.572391354316351</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9596292073579634</v>
+        <v>28</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.572391354316351</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.23659964619638</v>
       </c>
     </row>
@@ -4587,72 +4569,66 @@
         <v>4.597161988963239e-07</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.4539547649519891</v>
+        <v>1.402388225333149e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.148951194317931</v>
+        <v>3.243831067525295e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>1.402388225333149e-06</v>
+        <v>-0.01442092052421128</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>3.243831067525295e-06</v>
+        <v>0.1140316946200232</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>-0.01442092052421128</v>
+        <v>0.01321120767891611</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1140316946200232</v>
+        <v>1.83471870348596</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.01321120767891611</v>
+        <v>1.945583364260427</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.807549799663485</v>
+        <v>3.85125238237425</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.945583364260427</v>
+        <v>6.154129224441843e-16</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.85125238237425</v>
+        <v>273971969.8977051</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>6.154129224441843e-16</v>
+        <v>4.29364219520473e-07</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>273971969.8977051</v>
+        <v>46.19328800117229</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>4.29364219520473e-07</v>
+        <v>0.0001455398771332833</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>46.19328800117229</v>
+        <v>8.830968468061045</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001455398771332833</v>
+        <v>1.276218854796514</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>8.830968468061045</v>
+        <v>0.01135007345248485</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.276218854796514</v>
+        <v>2.85008239867864</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01135007345248485</v>
+        <v>0.9601715099039013</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>2.85008239867864</v>
+        <v>1.568355719503834</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9601715099039013</v>
+        <v>28</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.568355719503834</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.2335162654018945</v>
       </c>
     </row>
@@ -4667,72 +4643,66 @@
         <v>4.650950283888423e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.45139192483665</v>
+        <v>1.404097704054622e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.1697184061136</v>
+        <v>3.237074475860092e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>1.404097704054622e-06</v>
+        <v>-0.01496424380250838</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>3.237074475860092e-06</v>
+        <v>0.1124900488837449</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>-0.01496424380250838</v>
+        <v>0.01287765911857804</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1124900488837449</v>
+        <v>1.810408363764303</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.01287765911857804</v>
+        <v>1.885325836634238</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.770249977473772</v>
+        <v>3.696812743346273</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.885325836634238</v>
+        <v>6.679064940508616e-16</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.696812743346273</v>
+        <v>259825734.2238865</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>6.679064940508616e-16</v>
+        <v>4.526290537399771e-07</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>259825734.2238865</v>
+        <v>45.08997479454754</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>4.526290537399771e-07</v>
+        <v>0.0001565744900711382</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>45.08997479454754</v>
+        <v>9.378648925774826</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001565744900711382</v>
+        <v>1.314880115936751</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>9.378648925774826</v>
+        <v>0.01377214428912902</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.314880115936751</v>
+        <v>2.771373220471894</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01377214428912902</v>
+        <v>0.96034758460599</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.771373220471894</v>
+        <v>1.618151706278903</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.96034758460599</v>
+        <v>31</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.618151706278903</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.237682513473972</v>
       </c>
     </row>
@@ -4747,72 +4717,66 @@
         <v>4.705347284154022e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.4533422778514434</v>
+        <v>1.408885015747231e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.190106022469257</v>
+        <v>3.229730870441168e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>1.408885015747231e-06</v>
+        <v>-0.01658127133688463</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>3.229730870441168e-06</v>
+        <v>0.1102116320255431</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>-0.01658127133688463</v>
+        <v>0.01242057859718121</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.1102116320255431</v>
+        <v>1.805782788034003</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.01242057859718121</v>
+        <v>2.092516668333209</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.76435999041133</v>
+        <v>3.573807278747374</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>2.092516668333209</v>
+        <v>7.146745440016785e-16</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.573807278747374</v>
+        <v>243791398.7978434</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>7.146745440016785e-16</v>
+        <v>4.813086253920408e-07</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>243791398.7978434</v>
+        <v>42.47614274947552</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>4.813086253920408e-07</v>
+        <v>0.0001632127639578144</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>42.47614274947552</v>
+        <v>9.485009975390128</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001632127639578144</v>
+        <v>1.354794958493612</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>9.485009975390128</v>
+        <v>0.01468350391761847</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.354794958493612</v>
+        <v>2.785307827079788</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.01468350391761847</v>
+        <v>0.960358396152047</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.785307827079788</v>
+        <v>1.602041909109229</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.960358396152047</v>
+        <v>31</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.602041909109229</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.2348263907628512</v>
       </c>
     </row>
@@ -4827,72 +4791,66 @@
         <v>4.760712249799298e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.4620158275208594</v>
+        <v>1.414158431196019e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.208317600450881</v>
+        <v>3.221369675651024e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1.414158431196019e-06</v>
+        <v>-0.01872502775253125</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>3.221369675651024e-06</v>
+        <v>0.107273615463499</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>-0.01872502775253125</v>
+        <v>0.01185724147500797</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.107273615463499</v>
+        <v>1.811642383659887</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.01185724147500797</v>
+        <v>2.080560110420083</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.760680290500441</v>
+        <v>3.554748399407452</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>2.080560110420083</v>
+        <v>7.22358581670246e-16</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.554748399407452</v>
+        <v>242973936.4885487</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>7.22358581670246e-16</v>
+        <v>4.83916297250991e-07</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>242973936.4885487</v>
+        <v>42.64540235998297</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>4.83916297250991e-07</v>
+        <v>0.0001492590788588351</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>42.64540235998297</v>
+        <v>9.336071396839431</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001492590788588351</v>
+        <v>1.388574747684512</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>9.336071396839431</v>
+        <v>0.01300975403076134</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.388574747684512</v>
+        <v>2.881355354626913</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.01300975403076134</v>
+        <v>0.9591142083996744</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.881355354626913</v>
+        <v>1.653005793161901</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9591142083996744</v>
+        <v>25</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.653005793161901</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.2458149966544949</v>
       </c>
     </row>
@@ -4907,72 +4865,66 @@
         <v>4.815233313131543e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.478227142180006</v>
+        <v>1.41692783829686e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.221535508689438</v>
+        <v>3.211962591972619e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>1.41692783829686e-06</v>
+        <v>-0.02039617426387084</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3.211962591972619e-06</v>
+        <v>0.1047914338559804</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>-0.02039617426387084</v>
+        <v>0.01139686443758784</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1047914338559804</v>
+        <v>1.811597382199792</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.01139686443758784</v>
+        <v>1.910185048830075</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.759851706588079</v>
+        <v>3.512507959463523</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.910185048830075</v>
+        <v>7.398368129014509e-16</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.512507959463523</v>
+        <v>233660762.1910377</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>7.398368129014509e-16</v>
+        <v>5.041483476721353e-07</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>233660762.1910377</v>
+        <v>40.39313073946885</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>5.041483476721353e-07</v>
+        <v>0.0001348908234674932</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>40.39313073946885</v>
+        <v>8.781387433302399</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001348908234674932</v>
+        <v>1.440227243102611</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>8.781387433302399</v>
+        <v>0.01040180440493536</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.440227243102611</v>
+        <v>2.910207784377316</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.01040180440493536</v>
+        <v>0.9579300288539583</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>2.910207784377316</v>
+        <v>1.651092019506037</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9579300288539583</v>
+        <v>25</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.651092019506037</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.2653978271557396</v>
       </c>
     </row>
@@ -5349,7 +5301,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.38912834292229</v>
+        <v>1.388920270541174</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.622359816126506</v>
@@ -5438,7 +5390,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.402750444617496</v>
+        <v>1.399253158299898</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.470782558200249</v>
@@ -5527,7 +5479,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.41443550604835</v>
+        <v>1.411399856876174</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.713790731037103</v>
@@ -5616,7 +5568,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.425612533275851</v>
+        <v>1.430985898874333</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.903175931373399</v>
@@ -5705,7 +5657,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.432822606448617</v>
+        <v>1.432871963029428</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.736558449349284</v>
@@ -5794,7 +5746,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.440229395592408</v>
+        <v>1.444262958295178</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.743732525020446</v>
@@ -5883,7 +5835,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.435945491421925</v>
+        <v>1.437983712929504</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.481950561575105</v>
@@ -5972,7 +5924,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.46390907027467</v>
+        <v>1.464348888273146</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.499341428085454</v>
@@ -6061,7 +6013,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.471549462553662</v>
+        <v>1.468390166751018</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.657157877232742</v>
@@ -6150,7 +6102,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.481425642900903</v>
+        <v>1.475581914569188</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.668958416055381</v>
@@ -6239,7 +6191,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.488331445610211</v>
+        <v>1.481187887290364</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.850059792243183</v>
@@ -6328,7 +6280,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.516851624484839</v>
+        <v>1.504448083400528</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.866931596101645</v>
@@ -6417,7 +6369,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.535145555900033</v>
+        <v>1.516225894244954</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.524774385312526</v>
@@ -6506,7 +6458,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.537184096480654</v>
+        <v>1.520265249335894</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.845571065257073</v>
@@ -6595,7 +6547,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.525906508279684</v>
+        <v>1.515409687985455</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.692704096623256</v>
@@ -6684,7 +6636,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.545017535282573</v>
+        <v>1.532821454137697</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.773639861204762</v>
@@ -6773,7 +6725,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.539441213119273</v>
+        <v>1.535676337634882</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.838071582820119</v>
@@ -6862,7 +6814,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.536318572002095</v>
+        <v>1.527323707414093</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.616715320810534</v>
@@ -6951,7 +6903,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.530752556753629</v>
+        <v>1.518466857411654</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.841633625112703</v>
@@ -7040,7 +6992,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.54044016520744</v>
+        <v>1.527668458557255</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.777077489061011</v>
@@ -7129,7 +7081,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.512064464776893</v>
+        <v>1.494267799833127</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.586582247706254</v>
@@ -7218,7 +7170,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.545419504561156</v>
+        <v>1.52387279276776</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.634264828583527</v>
@@ -7307,7 +7259,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.53166381068958</v>
+        <v>1.509300577605652</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.70334267105416</v>
@@ -7396,7 +7348,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.53123511430607</v>
+        <v>1.509131447161606</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.740057525940647</v>
@@ -7485,7 +7437,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.51597380503274</v>
+        <v>1.48858111255762</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.740038920231478</v>
@@ -7574,7 +7526,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.521351349852532</v>
+        <v>1.49050911616985</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.739275209165257</v>
@@ -7663,7 +7615,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.515651412821925</v>
+        <v>1.488515485790797</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.779823747845541</v>
@@ -7752,7 +7704,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.519822591236219</v>
+        <v>1.485944289782811</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.421265930317049</v>
@@ -7841,7 +7793,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.534313322939874</v>
+        <v>1.49337685385376</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.609429733157374</v>
@@ -7930,7 +7882,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.545835544221365</v>
+        <v>1.502981794606345</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.68878390437725</v>
@@ -8019,7 +7971,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.553463555491637</v>
+        <v>1.508335811649951</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.830965715805258</v>
@@ -8108,7 +8060,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.547363638008466</v>
+        <v>1.500885083880141</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.624830180588897</v>
@@ -8197,7 +8149,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.561357383024781</v>
+        <v>1.518114510789172</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.833637169821381</v>
@@ -8286,7 +8238,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.576793106556404</v>
+        <v>1.53146255011392</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.650111519174663</v>
@@ -8375,7 +8327,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.565420795807827</v>
+        <v>1.523170584210042</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.028116607593279</v>
@@ -8464,7 +8416,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.598990649016815</v>
+        <v>1.557291888005368</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.801146722800111</v>
@@ -8553,7 +8505,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.579048975117657</v>
+        <v>1.534269582458332</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.581268822664469</v>
@@ -8642,7 +8594,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.594542267287919</v>
+        <v>1.550294764511288</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.720605120805331</v>
@@ -8731,7 +8683,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.581688379546276</v>
+        <v>1.538921507010607</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.88455167510342</v>
@@ -8820,7 +8772,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.581674573386045</v>
+        <v>1.542962952523645</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.869602541636665</v>
@@ -8909,7 +8861,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.598521080192014</v>
+        <v>1.559579573892172</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.983726505935573</v>
@@ -8998,7 +8950,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.583363521323103</v>
+        <v>1.545471171140024</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.732713686227962</v>
@@ -9087,7 +9039,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.580152816510772</v>
+        <v>1.539701693353345</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.763552631644123</v>
@@ -9176,7 +9128,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.576626626776609</v>
+        <v>1.539565306762613</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.876185269530958</v>
@@ -9265,7 +9217,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.563561233515725</v>
+        <v>1.52661832266835</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.040080218197012</v>
@@ -9354,7 +9306,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.55480699685912</v>
+        <v>1.512848088740179</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.540741699488199</v>
@@ -9443,7 +9395,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.55071805630334</v>
+        <v>1.516148892055253</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.861135532830479</v>
@@ -9532,7 +9484,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.562525317536282</v>
+        <v>1.524008034883701</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.833559487987988</v>
@@ -9621,7 +9573,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.536031249585468</v>
+        <v>1.497744837643692</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.714961683388391</v>
@@ -9710,7 +9662,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.538371227034101</v>
+        <v>1.506804464208072</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.063012369667599</v>
@@ -9799,7 +9751,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.528748329652884</v>
+        <v>1.493953871973441</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.91789924606872</v>
@@ -10085,7 +10037,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.550646128175477</v>
+        <v>1.519106267094369</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.067081095373001</v>
@@ -10174,7 +10126,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.552360502676369</v>
+        <v>1.518030492390042</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.846279229233637</v>
@@ -10263,7 +10215,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.561495346047669</v>
+        <v>1.527654961804183</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.557756624711828</v>
@@ -10352,7 +10304,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.578679623629786</v>
+        <v>1.5402163857071</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.272072895483605</v>
@@ -10441,7 +10393,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.586089318530657</v>
+        <v>1.538475734598137</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.018704713953365</v>
@@ -10530,7 +10482,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.580876336673063</v>
+        <v>1.534707865504352</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.071843514096273</v>
@@ -10619,7 +10571,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.576516917539768</v>
+        <v>1.534634769684303</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.769828282693433</v>
@@ -10708,7 +10660,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.569534968609116</v>
+        <v>1.529109912451725</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.142915344016179</v>
@@ -10797,7 +10749,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.555501306709727</v>
+        <v>1.520688757034084</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.981346206720515</v>
@@ -10886,7 +10838,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.554786966911303</v>
+        <v>1.521000287885577</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.502091877466753</v>
@@ -10975,7 +10927,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.56064825238831</v>
+        <v>1.524978039797588</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.10339720216036</v>
@@ -11064,7 +11016,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.557963355283341</v>
+        <v>1.517275187908588</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.192929473522864</v>
@@ -11153,7 +11105,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.557505360659101</v>
+        <v>1.512266063414378</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.202043672979277</v>
@@ -11242,7 +11194,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.560905031805639</v>
+        <v>1.520157993474201</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.053456552407742</v>
@@ -11331,7 +11283,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.566383589742643</v>
+        <v>1.527299468439223</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.009315482401965</v>
@@ -11420,7 +11372,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.563425510034676</v>
+        <v>1.526776536022247</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.25193648468743</v>
@@ -11509,7 +11461,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.561792562999543</v>
+        <v>1.52961789764627</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.228793940300832</v>
@@ -11598,7 +11550,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.546064530419219</v>
+        <v>1.516747804860944</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.012764291004848</v>
@@ -11687,7 +11639,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.543287493296463</v>
+        <v>1.51397024716601</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.010910572939995</v>
@@ -11776,7 +11728,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.538820513308499</v>
+        <v>1.511640148746983</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.718916160821107</v>
@@ -11865,7 +11817,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.535364382440558</v>
+        <v>1.503170455555635</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.823322409957778</v>
@@ -11954,7 +11906,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.542722430079647</v>
+        <v>1.505435464130998</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.60596709071956</v>
@@ -12043,7 +11995,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.533800927385682</v>
+        <v>1.500022074154729</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.823635159861323</v>
@@ -12132,7 +12084,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.533825213757345</v>
+        <v>1.495983332571665</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.005851430830278</v>
@@ -12221,7 +12173,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.535998440025124</v>
+        <v>1.491329949069672</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.959018530242393</v>
@@ -12310,7 +12262,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.525270805312605</v>
+        <v>1.475839149498546</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.762967243363476</v>
@@ -12399,7 +12351,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.536159672614035</v>
+        <v>1.487987171405849</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.876644477636948</v>
@@ -12488,7 +12440,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.533160390550272</v>
+        <v>1.486105650342527</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.036993176182113</v>
@@ -12577,7 +12529,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.521541690008392</v>
+        <v>1.47714755701099</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.854543899536259</v>
@@ -12666,7 +12618,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.518874944715039</v>
+        <v>1.474235247756712</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.054752946081545</v>
@@ -12755,7 +12707,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.510136568628993</v>
+        <v>1.461449272656891</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.997259360572718</v>
@@ -12844,7 +12796,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.499603582422239</v>
+        <v>1.45201146599952</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.085254253263303</v>
@@ -12933,7 +12885,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.506765745570706</v>
+        <v>1.456959255551852</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.152257919027314</v>
@@ -13022,7 +12974,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.509726566530055</v>
+        <v>1.460479093843486</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.089686371775413</v>
@@ -13111,7 +13063,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.488220779662091</v>
+        <v>1.450883247655754</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.562274102840946</v>
@@ -13200,7 +13152,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.495569382347792</v>
+        <v>1.462763445538309</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.749450857967864</v>
@@ -13289,7 +13241,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.484348576346511</v>
+        <v>1.453027209173414</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.637802853575774</v>
@@ -13378,7 +13330,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.498055972453184</v>
+        <v>1.465359484053066</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.814928766487759</v>
@@ -13467,7 +13419,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.498358368637267</v>
+        <v>1.468029918360054</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.9654445912091</v>
@@ -13556,7 +13508,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.507233854196386</v>
+        <v>1.475392531294492</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.877469862601836</v>
@@ -13645,7 +13597,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.516161230576154</v>
+        <v>1.490034986512937</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.81763040409492</v>
@@ -13734,7 +13686,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.523284510142879</v>
+        <v>1.494552417638721</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.673531368287899</v>
@@ -13823,7 +13775,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.523333376018262</v>
+        <v>1.485929277000665</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.837440236949022</v>
@@ -13912,7 +13864,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.514408026616645</v>
+        <v>1.481550592342075</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.75628505323619</v>
@@ -14001,7 +13953,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.519844858922977</v>
+        <v>1.48864974168336</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.794642769634618</v>
@@ -14090,7 +14042,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.517468736127259</v>
+        <v>1.492763836026328</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.560253837232387</v>
@@ -14179,7 +14131,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.538413363015731</v>
+        <v>1.510729074143621</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.874800466059585</v>
@@ -14268,7 +14220,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.539625933503609</v>
+        <v>1.507353370716427</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.824706099070939</v>
@@ -14357,7 +14309,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.533550054278272</v>
+        <v>1.50033844333921</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.870022807100083</v>
@@ -14446,7 +14398,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.556526327852547</v>
+        <v>1.520066507853354</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.851081868103619</v>
@@ -14535,7 +14487,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.555866036328373</v>
+        <v>1.515194856371961</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.637101253160879</v>
@@ -14821,7 +14773,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.588406176162996</v>
+        <v>1.554520851703452</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.374519622407612</v>
@@ -14910,7 +14862,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.585265628347085</v>
+        <v>1.549852784848525</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.318775573672243</v>
@@ -14999,7 +14951,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.60185507243114</v>
+        <v>1.559989977464689</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.477797820871339</v>
@@ -15088,7 +15040,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.599528492668473</v>
+        <v>1.55960461467429</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.130162528701377</v>
@@ -15177,7 +15129,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.585049211063785</v>
+        <v>1.535588915049852</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.609833629921495</v>
@@ -15266,7 +15218,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.579433834136755</v>
+        <v>1.525862477570544</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.143719444347953</v>
@@ -15355,7 +15307,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.578810826903707</v>
+        <v>1.52692323139424</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.289871223797621</v>
@@ -15444,7 +15396,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.590454702719711</v>
+        <v>1.533841626282356</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.741492294468552</v>
@@ -15533,7 +15485,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.597791860693279</v>
+        <v>1.543525419765902</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.160172587929669</v>
@@ -15622,7 +15574,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.584130195440843</v>
+        <v>1.529970258901385</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.223068530722482</v>
@@ -15711,7 +15663,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.587779430904108</v>
+        <v>1.534567952165343</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.060026466593995</v>
@@ -15800,7 +15752,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.593295856762046</v>
+        <v>1.528808859815934</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.238663284940113</v>
@@ -15889,7 +15841,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.591797773851753</v>
+        <v>1.52438224967672</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.016075314674783</v>
@@ -15978,7 +15930,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.601375194766559</v>
+        <v>1.530698567665604</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.216062919166774</v>
@@ -16067,7 +16019,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.593537400189628</v>
+        <v>1.518942979874333</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.568063630828811</v>
@@ -16156,7 +16108,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.588799445632195</v>
+        <v>1.518096730581462</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>3.211884027802319</v>
@@ -16245,7 +16197,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.596524414336403</v>
+        <v>1.522824679312037</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.160578303216595</v>
@@ -16334,7 +16286,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.599301744741481</v>
+        <v>1.522522991045824</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>3.533775127629513</v>
@@ -16423,7 +16375,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.59776544403828</v>
+        <v>1.519773928271249</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.404645555731494</v>
@@ -16512,7 +16464,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.620539844936932</v>
+        <v>1.543056544104206</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>3.511276064027288</v>
@@ -16601,7 +16553,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.605859791794001</v>
+        <v>1.523533279766237</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.524619488160237</v>
@@ -16690,7 +16642,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.604249267384867</v>
+        <v>1.522315457236743</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>3.644381444423113</v>
@@ -16779,7 +16731,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.602457902479382</v>
+        <v>1.517300452599613</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>3.750003245907723</v>
@@ -16868,7 +16820,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.601176712408766</v>
+        <v>1.510284896054882</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>3.227539216871828</v>
@@ -16957,7 +16909,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.602674047780374</v>
+        <v>1.507587920252253</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>3.62609438869687</v>
@@ -17046,7 +16998,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.599896325401447</v>
+        <v>1.498341723599518</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>3.415718138603548</v>
@@ -17135,7 +17087,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.598048313375552</v>
+        <v>1.500436543156047</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>3.212926781753677</v>
@@ -17224,7 +17176,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.594883883014785</v>
+        <v>1.494410147043246</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>3.491499936113192</v>
@@ -17313,7 +17265,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.594629578430958</v>
+        <v>1.484557868703299</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>3.181142155491151</v>
@@ -17402,7 +17354,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.603761850957661</v>
+        <v>1.491019006142478</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>3.004669494170613</v>
@@ -17491,7 +17443,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.603693331062949</v>
+        <v>1.493757425955669</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>3.580452177326285</v>
@@ -17580,7 +17532,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.599612419894159</v>
+        <v>1.494469038651076</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>3.247010925723192</v>
@@ -17669,7 +17621,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.600405935156097</v>
+        <v>1.495597607473641</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.595891926503665</v>
@@ -17758,7 +17710,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.594303299264988</v>
+        <v>1.491151329410562</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.990457100400975</v>
@@ -17847,7 +17799,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.594338654781102</v>
+        <v>1.498826689455908</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>3.000025793496302</v>
@@ -17936,7 +17888,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.607620926588115</v>
+        <v>1.517697415661947</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.260043974778281</v>
@@ -18025,7 +17977,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.605785590847891</v>
+        <v>1.517065568079006</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.018881510918477</v>
@@ -18114,7 +18066,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.620794419699163</v>
+        <v>1.531111492398548</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.494122524353887</v>
@@ -18203,7 +18155,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.616105177327949</v>
+        <v>1.527629915947387</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.143091591862917</v>
@@ -18292,7 +18244,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.632171119818156</v>
+        <v>1.535413278485619</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.526779472115149</v>
@@ -18381,7 +18333,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.63826714064842</v>
+        <v>1.547566164602684</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.448799488134756</v>
@@ -18470,7 +18422,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.641235564280268</v>
+        <v>1.546988711875012</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.808023628195894</v>
@@ -18559,7 +18511,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.643548311832745</v>
+        <v>1.546014216034781</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.64858716753947</v>
@@ -18648,7 +18600,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.639588082555494</v>
+        <v>1.547129109256183</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.671409892373595</v>
@@ -18737,7 +18689,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.636130661827282</v>
+        <v>1.548142303688665</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.454656648540106</v>
@@ -18826,7 +18778,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.638040086154115</v>
+        <v>1.552645243400564</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.643568495285827</v>
@@ -18915,7 +18867,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.638524065285567</v>
+        <v>1.553051456408719</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.53351744101262</v>
@@ -19004,7 +18956,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.639262176008927</v>
+        <v>1.547411565928427</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.433011247295116</v>
@@ -19093,7 +19045,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.649095988030014</v>
+        <v>1.552417241801614</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.116145284419341</v>
@@ -19182,7 +19134,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.646667991380709</v>
+        <v>1.550080777787034</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.525580439455435</v>
@@ -19271,7 +19223,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.637365619374261</v>
+        <v>1.545778121286915</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.407445093718231</v>
@@ -19557,7 +19509,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.508909713199945</v>
+        <v>1.490829203959938</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>3.110226537850811</v>
@@ -19646,7 +19598,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.509431056947667</v>
+        <v>1.484428376017875</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>3.043535073174725</v>
@@ -19735,7 +19687,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.518000965294458</v>
+        <v>1.490538102465466</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.050110736410431</v>
@@ -19824,7 +19776,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.530794153896369</v>
+        <v>1.496227870355547</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.909802255367766</v>
@@ -19913,7 +19865,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.517875991756661</v>
+        <v>1.476591547629911</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.269353161585467</v>
@@ -20002,7 +19954,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.51714690055045</v>
+        <v>1.476137758413513</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.220480839608034</v>
@@ -20091,7 +20043,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.526218950842781</v>
+        <v>1.480654434996752</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.019275507636408</v>
@@ -20180,7 +20132,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.545104170991308</v>
+        <v>1.496250146771677</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.690342332351846</v>
@@ -20269,7 +20221,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.554234130367032</v>
+        <v>1.507578017986034</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.129085017881823</v>
@@ -20358,7 +20310,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.551916193524508</v>
+        <v>1.504126852777593</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.147801886140015</v>
@@ -20447,7 +20399,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.565384232412684</v>
+        <v>1.519425690727012</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.267302781062463</v>
@@ -20536,7 +20488,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.575737372411232</v>
+        <v>1.52127295352042</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.408277312630622</v>
@@ -20625,7 +20577,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.566322672452033</v>
+        <v>1.510870808596408</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.984906788156922</v>
@@ -20714,7 +20666,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.576230424234349</v>
+        <v>1.514809550007347</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.93224416843343</v>
@@ -20803,7 +20755,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.570762451340702</v>
+        <v>1.510048930565029</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.464521711332428</v>
@@ -20892,7 +20844,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.578385360810126</v>
+        <v>1.518757079669466</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.942284404417013</v>
@@ -20981,7 +20933,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.571218849666072</v>
+        <v>1.510565473136104</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.977014218588182</v>
@@ -21070,7 +21022,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.564663558885072</v>
+        <v>1.502759677831659</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.985387778764662</v>
@@ -21159,7 +21111,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.558242026737602</v>
+        <v>1.497445926009077</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.043301589313875</v>
@@ -21248,7 +21200,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.580142250213429</v>
+        <v>1.521934408781227</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.945808323854137</v>
@@ -21337,7 +21289,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.555188794421764</v>
+        <v>1.489292440761895</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>3.025742454108683</v>
@@ -21426,7 +21378,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.563289003691335</v>
+        <v>1.496378046929272</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.817713823559865</v>
@@ -21515,7 +21467,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.553751131142153</v>
+        <v>1.488529975806807</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.808064971133665</v>
@@ -21604,7 +21556,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.561591043949191</v>
+        <v>1.49392855982544</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.671043702327069</v>
@@ -21693,7 +21645,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.554558822731603</v>
+        <v>1.476638636560847</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.774369410454626</v>
@@ -21782,7 +21734,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.556439188211735</v>
+        <v>1.472065154098851</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.671942237832562</v>
@@ -21871,7 +21823,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.553259241433929</v>
+        <v>1.471653591714764</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.956314975045152</v>
@@ -21960,7 +21912,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.55937679319445</v>
+        <v>1.467667544210386</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.971578070996336</v>
@@ -22049,7 +22001,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.560935085846082</v>
+        <v>1.465947043842941</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.984101145819359</v>
@@ -22138,7 +22090,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.572387005925319</v>
+        <v>1.471269297365747</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.700547213817499</v>
@@ -22227,7 +22179,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.568799931650777</v>
+        <v>1.466270624783266</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.778752663661816</v>
@@ -22316,7 +22268,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.57837674677613</v>
+        <v>1.474679066165619</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.700887771234677</v>
@@ -22405,7 +22357,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.58511514052654</v>
+        <v>1.480824163186368</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>3.304884649835242</v>
@@ -22494,7 +22446,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.59291818904633</v>
+        <v>1.485387195960766</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>3.176917275916203</v>
@@ -22583,7 +22535,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.594063382320562</v>
+        <v>1.486968206273724</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.899721811612923</v>
@@ -22672,7 +22624,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.610343133977482</v>
+        <v>1.512646057955068</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>3.18008299665845</v>
@@ -22761,7 +22713,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.597767778027293</v>
+        <v>1.498061442787165</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>3.065142225710419</v>
@@ -22850,7 +22802,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.601676261448207</v>
+        <v>1.494358515321499</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>3.298744027983888</v>
@@ -22939,7 +22891,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.597451848516672</v>
+        <v>1.48861548232964</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>3.189660655172309</v>
@@ -23028,7 +22980,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.605622111889348</v>
+        <v>1.499927600259736</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>3.267268979282035</v>
@@ -23117,7 +23069,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.597978838217579</v>
+        <v>1.497397587648227</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.37510953957692</v>
@@ -23206,7 +23158,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.595752292769635</v>
+        <v>1.495910759818371</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.937434637130359</v>
@@ -23295,7 +23247,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.589092731281247</v>
+        <v>1.490115834445568</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.085832077631053</v>
@@ -23384,7 +23336,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.580126046008482</v>
+        <v>1.479140715414158</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.247728035346266</v>
@@ -23473,7 +23425,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.571681061473686</v>
+        <v>1.472109672071988</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.38459798177208</v>
@@ -23562,7 +23514,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.562058906344629</v>
+        <v>1.461744360475141</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.410211795478719</v>
@@ -23651,7 +23603,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.559363794995116</v>
+        <v>1.465855455584025</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.03467655436365</v>
@@ -23740,7 +23692,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.566399833174637</v>
+        <v>1.473457931630803</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>3.327807643294777</v>
@@ -23829,7 +23781,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.556026433486696</v>
+        <v>1.466396928608551</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.781853617762355</v>
@@ -23918,7 +23870,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.556299531989468</v>
+        <v>1.467940532211379</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.195839579980489</v>
@@ -24007,7 +23959,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.544578496304269</v>
+        <v>1.456366331274292</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>3.24885535909116</v>
@@ -24293,7 +24245,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.522055372307305</v>
+        <v>1.502173101757261</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.753873129361831</v>
@@ -24382,7 +24334,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.540019691177259</v>
+        <v>1.52006106974896</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.531567712049017</v>
@@ -24471,7 +24423,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.568308500155565</v>
+        <v>1.543590808746059</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>3.269822846306894</v>
@@ -24560,7 +24512,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.573067365640766</v>
+        <v>1.545162417241954</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>3.255702660991344</v>
@@ -24649,7 +24601,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.58145877875171</v>
+        <v>1.546251423669146</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.298393022637394</v>
@@ -24738,7 +24690,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.572104707019996</v>
+        <v>1.53794093052154</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.319337901355921</v>
@@ -24827,7 +24779,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.563810787199005</v>
+        <v>1.52897955862602</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.084143085412498</v>
@@ -24916,7 +24868,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.574283250775369</v>
+        <v>1.538845221727738</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.920487862891673</v>
@@ -25005,7 +24957,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.574220007646564</v>
+        <v>1.539575346499561</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.913826807775678</v>
@@ -25094,7 +25046,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.580470350129325</v>
+        <v>1.542851010987488</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.096916603066148</v>
@@ -25183,7 +25135,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.592563365743431</v>
+        <v>1.548868118085993</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.921289039134825</v>
@@ -25272,7 +25224,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.588823598732018</v>
+        <v>1.543332454520581</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.950952653814732</v>
@@ -25361,7 +25313,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.600390082705211</v>
+        <v>1.549342096214652</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.074154730685863</v>
@@ -25450,7 +25402,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.590356275780023</v>
+        <v>1.54026127348205</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>3.057703012811749</v>
@@ -25539,7 +25491,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.606814263387282</v>
+        <v>1.552078143550073</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>3.263533655979843</v>
@@ -25628,7 +25580,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.620602159560695</v>
+        <v>1.560916191857138</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.981318809740844</v>
@@ -25717,7 +25669,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.613789239322613</v>
+        <v>1.551927004199787</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>3.171614516439625</v>
@@ -25806,7 +25758,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.595677144958852</v>
+        <v>1.536841165198985</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.941116685226887</v>
@@ -25895,7 +25847,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.59591486440574</v>
+        <v>1.539214360662065</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>3.071977070107832</v>
@@ -25984,7 +25936,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.589886822421359</v>
+        <v>1.543196398254664</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.833059556240022</v>
@@ -26073,7 +26025,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.565156865324839</v>
+        <v>1.518931586970596</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.591344409993293</v>
@@ -26162,7 +26114,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.573422772793794</v>
+        <v>1.532312844236605</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.719456734542225</v>
@@ -26251,7 +26203,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.584490986204342</v>
+        <v>1.543060786369187</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.448495224793687</v>
@@ -26340,7 +26292,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.583231836305203</v>
+        <v>1.539999319166325</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.421398423773102</v>
@@ -26429,7 +26381,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.583659295102872</v>
+        <v>1.538809107878281</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.474659522331552</v>
@@ -26518,7 +26470,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.576071294037657</v>
+        <v>1.534662343305341</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.767688361827367</v>
@@ -26607,7 +26559,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.590665832466916</v>
+        <v>1.548582265375004</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.711813599859311</v>
@@ -26696,7 +26648,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.585373984205564</v>
+        <v>1.540122407660416</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.531409732053362</v>
@@ -26785,7 +26737,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.59659199415946</v>
+        <v>1.54853510489786</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.496725792468431</v>
@@ -26874,7 +26826,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.57577585974151</v>
+        <v>1.527715424527476</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.598289260698649</v>
@@ -26963,7 +26915,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.559142438204201</v>
+        <v>1.507351958750497</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.754028460149598</v>
@@ -27052,7 +27004,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.557165675959783</v>
+        <v>1.504794468566226</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.489720853890425</v>
@@ -27141,7 +27093,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.561006245730728</v>
+        <v>1.508843388112221</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.665655626854135</v>
@@ -27230,7 +27182,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.555337894481703</v>
+        <v>1.500973675324197</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.524153640339131</v>
@@ -27319,7 +27271,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.555462712307491</v>
+        <v>1.502966548151144</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.632952659430349</v>
@@ -27408,7 +27360,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.581661267931762</v>
+        <v>1.522697194985458</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.688922907121894</v>
@@ -27497,7 +27449,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.568823909080624</v>
+        <v>1.507216784525074</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.935896246073594</v>
@@ -27586,7 +27538,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.560379437679547</v>
+        <v>1.500451483614086</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.93630338487939</v>
@@ -27675,7 +27627,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.558573262743757</v>
+        <v>1.498888951963727</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.887718716518315</v>
@@ -27764,7 +27716,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.568770110283315</v>
+        <v>1.50967093533003</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.886057338833119</v>
@@ -27853,7 +27805,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.570064634417567</v>
+        <v>1.506265342055015</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.9035721457533</v>
@@ -27942,7 +27894,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.572646436700707</v>
+        <v>1.50760949198501</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.904426085655288</v>
@@ -28031,7 +27983,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.570291266650912</v>
+        <v>1.505702264302985</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.850844267438585</v>
@@ -28120,7 +28072,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.549998648837716</v>
+        <v>1.489018130064362</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.998218672788741</v>
@@ -28209,7 +28161,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.545742454667858</v>
+        <v>1.485805269837005</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.707686795084122</v>
@@ -28298,7 +28250,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.549795369473871</v>
+        <v>1.499954739317271</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.918909837827964</v>
@@ -28387,7 +28339,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.552087487822139</v>
+        <v>1.502530278772512</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>3.188455450166762</v>
@@ -28476,7 +28428,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.561338591782182</v>
+        <v>1.511563359894172</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.94117530886854</v>
@@ -28565,7 +28517,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.563300170844475</v>
+        <v>1.509711064148271</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>3.167223139021569</v>
@@ -28654,7 +28606,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.564576333007744</v>
+        <v>1.512935759246489</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>3.082427101205152</v>
@@ -28743,7 +28695,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.539799018084661</v>
+        <v>1.489085128213139</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.829497719565534</v>
@@ -29029,7 +28981,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.301483856412704</v>
+        <v>1.302196743905389</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>2.717558522757502</v>
@@ -29118,7 +29070,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.309708288952384</v>
+        <v>1.305222635224165</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>2.465114130676416</v>
@@ -29207,7 +29159,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.32842063614484</v>
+        <v>1.323214190645086</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.709711489642231</v>
@@ -29296,7 +29248,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.347647364613086</v>
+        <v>1.345462746562801</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.602616840922687</v>
@@ -29385,7 +29337,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.351347108160354</v>
+        <v>1.347684353611602</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.681266653785075</v>
@@ -29474,7 +29426,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.359877822217276</v>
+        <v>1.355934843607969</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.567050246104762</v>
@@ -29563,7 +29515,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.370696496663393</v>
+        <v>1.362835803007654</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.478822494841104</v>
@@ -29652,7 +29604,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.389841962686289</v>
+        <v>1.385019762407686</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.588469639551239</v>
@@ -29741,7 +29693,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.394240032112849</v>
+        <v>1.38858103609767</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.500764405830795</v>
@@ -29830,7 +29782,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.407378393251992</v>
+        <v>1.401493807180062</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.283501480718638</v>
@@ -29919,7 +29871,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.426469114395478</v>
+        <v>1.420968260706199</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.663023241040504</v>
@@ -30008,7 +29960,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.450531639311744</v>
+        <v>1.442301435521878</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.548583390568664</v>
@@ -30097,7 +30049,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.453832719455243</v>
+        <v>1.444783613588826</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.333758970379256</v>
@@ -30186,7 +30138,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.473899114887159</v>
+        <v>1.461218168592741</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.490853854424691</v>
@@ -30275,7 +30227,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.45713211982254</v>
+        <v>1.446613441773196</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.710842348592872</v>
@@ -30364,7 +30316,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.491496426561271</v>
+        <v>1.48100801136143</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.549631402787696</v>
@@ -30453,7 +30405,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.48986397489845</v>
+        <v>1.479881287264878</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.488843551030347</v>
@@ -30542,7 +30494,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.485351208627867</v>
+        <v>1.474710464404992</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.544359092672705</v>
@@ -30631,7 +30583,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.481916932859776</v>
+        <v>1.467130151264974</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.628430580717518</v>
@@ -30720,7 +30672,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.489658035011676</v>
+        <v>1.477643268506597</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.72385011707463</v>
@@ -30809,7 +30761,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.462052005984819</v>
+        <v>1.44980802998207</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.654279823953822</v>
@@ -30898,7 +30850,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.479831144511716</v>
+        <v>1.468745041751295</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.446015398642114</v>
@@ -30987,7 +30939,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.446665566787615</v>
+        <v>1.435608774834964</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.817221468788887</v>
@@ -31076,7 +31028,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.453045990830207</v>
+        <v>1.443406058139196</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.614701009446897</v>
@@ -31165,7 +31117,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.435802882620944</v>
+        <v>1.425659925137188</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.567120386572436</v>
@@ -31254,7 +31206,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.442233548962679</v>
+        <v>1.430469857615509</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.669090893846335</v>
@@ -31343,7 +31295,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.439695117848522</v>
+        <v>1.427275039245823</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.615021573733864</v>
@@ -31432,7 +31384,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.450173387986199</v>
+        <v>1.432920206712909</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.489208395290676</v>
@@ -31521,7 +31473,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.443512761081753</v>
+        <v>1.427941253052472</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.390411690589189</v>
@@ -31610,7 +31562,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.458410352524685</v>
+        <v>1.438199910112157</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.403687003085473</v>
@@ -31699,7 +31651,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.45494245289854</v>
+        <v>1.437642509803908</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.56019911992869</v>
@@ -31788,7 +31740,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.455265860854942</v>
+        <v>1.435663020514609</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.452984130054392</v>
@@ -31877,7 +31829,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.465052863707705</v>
+        <v>1.446294123956533</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.520313746568435</v>
@@ -31966,7 +31918,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.4743690147567</v>
+        <v>1.452895066659271</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.37113079090823</v>
@@ -32055,7 +32007,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.460677776262562</v>
+        <v>1.441729510564134</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.70265610590028</v>
@@ -32144,7 +32096,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.495278651830178</v>
+        <v>1.474076199332307</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.430745623860694</v>
@@ -32233,7 +32185,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.478903567711406</v>
+        <v>1.451863674701242</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.279645465891821</v>
@@ -32322,7 +32274,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.515864130743064</v>
+        <v>1.488062766638397</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.430321594590044</v>
@@ -32411,7 +32363,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.498806965526526</v>
+        <v>1.472954944830075</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.451049892000159</v>
@@ -32500,7 +32452,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.503680355421211</v>
+        <v>1.475519192502424</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.612414981416805</v>
@@ -32589,7 +32541,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.52844946725255</v>
+        <v>1.497376318811565</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.658557045135504</v>
@@ -32678,7 +32630,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.500770466634736</v>
+        <v>1.475670826413275</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.67666547424451</v>
@@ -32767,7 +32719,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.496132679066168</v>
+        <v>1.465369813450027</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.489186145766354</v>
@@ -32856,7 +32808,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.487592184707664</v>
+        <v>1.458538453663837</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.465282880085795</v>
@@ -32945,7 +32897,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.474422275999037</v>
+        <v>1.44622702864812</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.601618356069227</v>
@@ -33034,7 +32986,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.470321904139961</v>
+        <v>1.437189464856536</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.501832513660101</v>
@@ -33123,7 +33075,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.464361894794133</v>
+        <v>1.441202140833865</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.461737855275079</v>
@@ -33212,7 +33164,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.488145661560438</v>
+        <v>1.461696301219867</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.391690765111226</v>
@@ -33301,7 +33253,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.469795665012681</v>
+        <v>1.443810273164003</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.458075208331383</v>
@@ -33390,7 +33342,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.48150270140211</v>
+        <v>1.453819373548794</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.440724955565616</v>
@@ -33479,7 +33431,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.469692569623115</v>
+        <v>1.441240293287444</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.593537663900788</v>
